--- a/语言特性汇总.xlsx
+++ b/语言特性汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>C99</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类III</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -359,6 +355,71 @@
   </si>
   <si>
     <t xml:space="preserve"> Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">数值常量：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二进制：10（十进制2）,101（十进制5）
+八进制：01,0100（十进制64）
+十进制：1,100,
+十六进制：0x1,0X2，0xa（十进制10），0XFF（十进制255）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点常量：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符常量：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串字面值：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">类型转换：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>显示转换：(类型名称)表达式
+隐式转换：变量=表达式，不同类型转换可能会掉丢失信息</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+变量与常量：</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,17 +536,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,26 +854,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -808,154 +880,182 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="81">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="67.5">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="81">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="67.5">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="108">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="94.5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="40.5">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="D17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="40.5">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="40.5">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="81">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="67.5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="E10" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="108">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="94.5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="40.5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="E13" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="40.5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="40.5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="E17" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="E18" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A19"/>
+  <mergeCells count="5">
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/语言特性汇总.xlsx
+++ b/语言特性汇总.xlsx
@@ -22,11 +22,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t xml:space="preserve">特性</t>
   </si>
   <si>
+    <t xml:space="preserve"> 子特性</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 补充</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rust</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 片段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScript</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
@@ -36,28 +60,25 @@
     <t xml:space="preserve">Java</t>
   </si>
   <si>
-    <t xml:space="preserve"> Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lisp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rust</t>
+    <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve">注释</t>
   </si>
   <si>
-    <t xml:space="preserve">内置类型</t>
+    <t xml:space="preserve">行和块注释</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //, /* */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文档注释</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ///, //!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 类型</t>
   </si>
   <si>
     <r>
@@ -87,61 +108,100 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">浮点常量：</t>
   </si>
   <si>
     <t xml:space="preserve">字符常量：</t>
   </si>
   <si>
+    <t xml:space="preserve"> 字符串</t>
+  </si>
+  <si>
     <t xml:space="preserve">字符串字面值：</t>
   </si>
   <si>
+    <t xml:space="preserve"> 集合</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">类型转换</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">类型转换：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">显示转换：(类型名称)表达式
+隐式转换：变量=表达式，不同类型转换可能会掉丢失信息</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">变量</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">类型转换：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">显示转换：(类型名称)表达式
-隐式转换：变量=表达式，不同类型转换可能会掉丢失信息
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">变量与常量：</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">函数</t>
   </si>
   <si>
     <t xml:space="preserve">表达式</t>
   </si>
   <si>
+    <t xml:space="preserve"> 判断控制流</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if let</t>
+  </si>
+  <si>
+    <t xml:space="preserve">match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">循环控制流</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 函数参数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 函数返回值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定义匿名函数</t>
+  </si>
+  <si>
     <t xml:space="preserve">语句</t>
   </si>
   <si>
@@ -152,6 +212,9 @@
   </si>
   <si>
     <t xml:space="preserve">类设计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">面向对象编程</t>
   </si>
   <si>
     <r>
@@ -378,6 +441,9 @@
   </si>
   <si>
     <t xml:space="preserve">栈上的对象，一定要记得delete！</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 函数式编程</t>
   </si>
 </sst>
 </file>
@@ -387,7 +453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -409,6 +475,28 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Black"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="AR PL UKai CN"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="AR PL UKai CN"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -423,6 +511,12 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -503,40 +597,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,196 +663,329 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4050" topLeftCell="A2" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="8" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="19.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="39.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="32.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="2" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="2" customFormat="true" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+    </row>
+    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row r="6" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AMJ6" s="0"/>
-    </row>
-    <row r="7" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="M3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+    </row>
+    <row r="4" s="5" customFormat="true" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="J4" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="M4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+    </row>
+    <row r="5" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+    </row>
+    <row r="6" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="J6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+    </row>
+    <row r="7" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="J7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+    </row>
+    <row r="8" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+    </row>
+    <row r="9" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+    </row>
+    <row r="10" s="5" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="1"/>
+      <c r="J10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
+      <c r="A12" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="C17" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="C18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="C19" s="4" t="s">
-        <v>29</v>
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>30</v>
+      <c r="B20" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="C22" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="C23" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K27" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K28" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A23"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/语言特性汇总.xlsx
+++ b/语言特性汇总.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t xml:space="preserve">特性</t>
   </si>
@@ -135,6 +135,9 @@
     <t xml:space="preserve">类型转换</t>
   </si>
   <si>
+    <t xml:space="preserve">显示转换</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -160,37 +163,49 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">强制转换</t>
+  </si>
+  <si>
     <t xml:space="preserve">变量</t>
   </si>
   <si>
+    <t xml:space="preserve"> 定义</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作用域</t>
+  </si>
+  <si>
     <t xml:space="preserve">函数</t>
   </si>
   <si>
-    <t xml:space="preserve">表达式</t>
+    <t xml:space="preserve">控制流</t>
   </si>
   <si>
     <t xml:space="preserve"> 判断控制流</t>
   </si>
   <si>
-    <t xml:space="preserve">if else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if let</t>
-  </si>
-  <si>
-    <t xml:space="preserve">match</t>
+    <t xml:space="preserve">if else表达式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if let表达式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">match表达式</t>
   </si>
   <si>
     <t xml:space="preserve">循环控制流</t>
   </si>
   <si>
-    <t xml:space="preserve">loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">while</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for</t>
+    <t xml:space="preserve">loop表达式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while表达式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for表达式</t>
   </si>
   <si>
     <t xml:space="preserve"> 函数参数</t>
@@ -206,9 +221,6 @@
   </si>
   <si>
     <t xml:space="preserve">I/O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内存</t>
   </si>
   <si>
     <t xml:space="preserve">类设计</t>
@@ -444,6 +456,21 @@
   </si>
   <si>
     <t xml:space="preserve"> 函数式编程</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 并发编程</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 内存管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">错误处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 不可恢复错误</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> panic!</t>
   </si>
 </sst>
 </file>
@@ -453,7 +480,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -484,15 +511,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="AR PL UKai CN"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="AR PL UKai CN"/>
       <family val="0"/>
@@ -514,10 +541,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <name val="AR PL UKai CN"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="AR PL UKai CN"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -550,17 +585,23 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="AR PL UKai CN"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -597,7 +638,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -606,18 +647,30 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -626,7 +679,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -634,15 +687,35 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -663,10 +736,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,316 +747,393 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="19.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="39.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="32.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="19.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="39.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="32.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="2" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="3" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
       <c r="M2" s="0"/>
       <c r="O2" s="0"/>
       <c r="P2" s="0"/>
     </row>
-    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="M3" s="0"/>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
     </row>
-    <row r="4" s="5" customFormat="true" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="8" customFormat="true" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="J4" s="6" t="s">
+      <c r="D4" s="2"/>
+      <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="K4" s="7"/>
       <c r="M4" s="0"/>
       <c r="O4" s="0"/>
       <c r="P4" s="0"/>
     </row>
-    <row r="5" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="J5" s="7" t="s">
+      <c r="D5" s="2"/>
+      <c r="J5" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="K5" s="7"/>
       <c r="M5" s="0"/>
       <c r="O5" s="0"/>
       <c r="P5" s="0"/>
     </row>
-    <row r="6" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="J6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="J6" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="K6" s="7"/>
       <c r="M6" s="0"/>
       <c r="O6" s="0"/>
       <c r="P6" s="0"/>
     </row>
-    <row r="7" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="J7" s="7" t="s">
+      <c r="D7" s="2"/>
+      <c r="J7" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="K7" s="7"/>
       <c r="M7" s="0"/>
       <c r="O7" s="0"/>
       <c r="P7" s="0"/>
     </row>
-    <row r="8" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="M8" s="0"/>
       <c r="O8" s="0"/>
       <c r="P8" s="0"/>
     </row>
-    <row r="9" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="M9" s="0"/>
       <c r="O9" s="0"/>
       <c r="P9" s="0"/>
     </row>
-    <row r="10" s="5" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="8" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="0"/>
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="J10" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="J10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="7"/>
       <c r="M10" s="0"/>
       <c r="O10" s="0"/>
       <c r="P10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="8"/>
+    <row r="11" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="7"/>
+      <c r="M11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="s">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>44</v>
+      <c r="A22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>45</v>
+      <c r="B23" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="6" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="6" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="6" t="s">
+    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="6" t="s">
+      <c r="K27" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="6" t="s">
+    <row r="28" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K28" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+    <row r="29" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K33" s="6" t="s">
+    <row r="30" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K34" s="11" t="s">
+    <row r="31" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K31" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="4" t="s">
+    <row r="32" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="9" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K35" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K36" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8"/>
+      <c r="C38" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8"/>
+      <c r="C39" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="0"/>
+      <c r="D40" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="M41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/语言特性汇总.xlsx
+++ b/语言特性汇总.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t xml:space="preserve">特性</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">片段</t>
   </si>
   <si>
     <t xml:space="preserve">JavaScript</t>
@@ -223,10 +226,10 @@
     <t xml:space="preserve">I/O</t>
   </si>
   <si>
-    <t xml:space="preserve">类设计</t>
-  </si>
-  <si>
     <t xml:space="preserve">面向对象编程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">类</t>
   </si>
   <si>
     <r>
@@ -452,13 +455,45 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">栈上的对象，一定要记得delete！</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="AR PL UKai CN"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">栈上的对象，一定要记得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Black"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="AR PL UKai CN"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">！</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> 函数式编程</t>
   </si>
   <si>
     <t xml:space="preserve"> 并发编程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无锁编程</t>
   </si>
   <si>
     <t xml:space="preserve"> 内存管理</t>
@@ -480,7 +515,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -581,13 +616,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="AR PL UKai CN"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -687,16 +715,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -736,10 +764,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -750,13 +778,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="19.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="39.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="32.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="3" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="3" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="39.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="32.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="3" width="9"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,341 +827,374 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="7"/>
+        <v>16</v>
+      </c>
       <c r="K2" s="7"/>
-      <c r="M2" s="0"/>
-      <c r="O2" s="0"/>
+      <c r="L2" s="7"/>
+      <c r="N2" s="0"/>
       <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
     </row>
     <row r="3" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="7"/>
+        <v>18</v>
+      </c>
       <c r="K3" s="7"/>
-      <c r="M3" s="0"/>
-      <c r="O3" s="0"/>
+      <c r="L3" s="7"/>
+      <c r="N3" s="0"/>
       <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
     </row>
     <row r="4" s="8" customFormat="true" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
-      <c r="J4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="M4" s="0"/>
-      <c r="O4" s="0"/>
+      <c r="K4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="N4" s="0"/>
       <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
     </row>
     <row r="5" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
-      <c r="J5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="M5" s="0"/>
-      <c r="O5" s="0"/>
+      <c r="K5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="N5" s="0"/>
       <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
     </row>
     <row r="6" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
-      <c r="J6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="M6" s="0"/>
-      <c r="O6" s="0"/>
+      <c r="K6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="N6" s="0"/>
       <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
     </row>
     <row r="7" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
-      <c r="J7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="M7" s="0"/>
-      <c r="O7" s="0"/>
+      <c r="K7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="N7" s="0"/>
       <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
     </row>
     <row r="8" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="7"/>
+        <v>27</v>
+      </c>
       <c r="K8" s="7"/>
-      <c r="M8" s="0"/>
-      <c r="O8" s="0"/>
+      <c r="L8" s="7"/>
+      <c r="N8" s="0"/>
       <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
     </row>
     <row r="9" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="7"/>
+        <v>28</v>
+      </c>
       <c r="K9" s="7"/>
-      <c r="M9" s="0"/>
-      <c r="O9" s="0"/>
+      <c r="L9" s="7"/>
+      <c r="N9" s="0"/>
       <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
     </row>
     <row r="10" s="8" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
-      <c r="J10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="M10" s="0"/>
-      <c r="O10" s="0"/>
+      <c r="K10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="N10" s="0"/>
       <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
     </row>
     <row r="11" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="7"/>
-      <c r="M11" s="0"/>
-      <c r="O11" s="0"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="N11" s="0"/>
       <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="D18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="B19" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="9" t="s">
+      <c r="C28" s="0"/>
+      <c r="L28" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="9" t="s">
+    <row r="29" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="13" t="s">
+    <row r="30" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L30" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K31" s="9" t="s">
+    <row r="31" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L31" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K32" s="9" t="s">
+      <c r="L32" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+    <row r="33" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L33" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K35" s="9" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K36" s="14" t="s">
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L36" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="7" t="s">
+    <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L37" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8"/>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="C38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8"/>
-      <c r="C39" s="7" t="s">
+      <c r="A39" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="C39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="7" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="0"/>
-      <c r="D40" s="2" t="s">
+      <c r="C41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="M41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
+      <c r="B42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="0"/>
+      <c r="D42" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="N43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/语言特性汇总.xlsx
+++ b/语言特性汇总.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t xml:space="preserve">特性</t>
   </si>
@@ -72,13 +72,47 @@
     <t xml:space="preserve">行和块注释</t>
   </si>
   <si>
-    <t xml:space="preserve"> //, /* */</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="AR PL UKai CN"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> //行注释
+/*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="AR PL UKai CN"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">区块注释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="AR PL UKai CN"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*/</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+➜ cargo doc –open</t>
   </si>
   <si>
     <t xml:space="preserve">文档注释</t>
   </si>
   <si>
-    <t xml:space="preserve"> ///, //!</t>
+    <t xml:space="preserve">///通常用于函数,结构体对象上方
+//!通常用于文件头部</t>
   </si>
   <si>
     <t xml:space="preserve"> 类型</t>
@@ -515,7 +549,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -559,6 +593,12 @@
       <name val="AR PL UKai CN"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="AR PL UKai CN"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -666,7 +706,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -699,19 +739,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -719,11 +767,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -767,7 +815,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -775,8 +823,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.24"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="19.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="3" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="39.75"/>
@@ -831,7 +880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="10" customFormat="true" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -839,8 +888,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -848,87 +900,88 @@
       <c r="P2" s="0"/>
       <c r="Q2" s="0"/>
     </row>
-    <row r="3" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="10" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="N3" s="0"/>
       <c r="P3" s="0"/>
       <c r="Q3" s="0"/>
     </row>
-    <row r="4" s="8" customFormat="true" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="10" customFormat="true" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
-      <c r="K4" s="9" t="s">
-        <v>20</v>
+      <c r="K4" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="0"/>
       <c r="P4" s="0"/>
       <c r="Q4" s="0"/>
     </row>
-    <row r="5" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
-      <c r="K5" s="10" t="s">
-        <v>22</v>
+      <c r="K5" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="L5" s="7"/>
       <c r="N5" s="0"/>
       <c r="P5" s="0"/>
       <c r="Q5" s="0"/>
     </row>
-    <row r="6" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
-      <c r="K6" s="10" t="s">
-        <v>23</v>
+      <c r="K6" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="L6" s="7"/>
       <c r="N6" s="0"/>
       <c r="P6" s="0"/>
       <c r="Q6" s="0"/>
     </row>
-    <row r="7" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
-      <c r="K7" s="10" t="s">
-        <v>25</v>
+      <c r="K7" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="L7" s="7"/>
       <c r="N7" s="0"/>
       <c r="P7" s="0"/>
       <c r="Q7" s="0"/>
     </row>
-    <row r="8" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -936,14 +989,14 @@
       <c r="P8" s="0"/>
       <c r="Q8" s="0"/>
     </row>
-    <row r="9" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -951,252 +1004,255 @@
       <c r="P9" s="0"/>
       <c r="Q9" s="0"/>
     </row>
-    <row r="10" s="8" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="10" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
-      <c r="K10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="12"/>
+      <c r="K10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="14"/>
       <c r="N10" s="0"/>
       <c r="P10" s="0"/>
       <c r="Q10" s="0"/>
     </row>
-    <row r="11" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
-        <v>32</v>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
       <c r="N11" s="0"/>
       <c r="P11" s="0"/>
       <c r="Q11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="12"/>
+      <c r="D18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L24" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L25" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="0"/>
-      <c r="L28" s="11" t="s">
-        <v>54</v>
+      <c r="L28" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L29" s="11" t="s">
-        <v>55</v>
+      <c r="L29" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L30" s="11" t="s">
-        <v>56</v>
+      <c r="L30" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L31" s="14" t="s">
-        <v>57</v>
+      <c r="L31" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L32" s="11" t="s">
-        <v>58</v>
+      <c r="L32" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L33" s="11" t="s">
-        <v>59</v>
+      <c r="L33" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L34" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="L34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L35" s="12"/>
+      <c r="L35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L36" s="11" t="s">
-        <v>61</v>
+      <c r="L36" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L37" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="N43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="N43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/语言特性汇总.xlsx
+++ b/语言特性汇总.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t xml:space="preserve">特性</t>
   </si>
@@ -72,36 +72,8 @@
     <t xml:space="preserve">行和块注释</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="AR PL UKai CN"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> //行注释
-/*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="AR PL UKai CN"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">区块注释</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="AR PL UKai CN"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*/</t>
-    </r>
+    <t xml:space="preserve"> //行注释
+/*区块注释*/</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -172,7 +144,7 @@
     <t xml:space="preserve">类型转换</t>
   </si>
   <si>
-    <t xml:space="preserve">显示转换</t>
+    <t xml:space="preserve">显式转换</t>
   </si>
   <si>
     <r>
@@ -200,7 +172,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">强制转换</t>
+    <t xml:space="preserve">隐式转换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不允许</t>
   </si>
   <si>
     <t xml:space="preserve">变量</t>
@@ -549,7 +524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -593,12 +568,6 @@
       <name val="AR PL UKai CN"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="AR PL UKai CN"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -743,7 +712,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -751,27 +720,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -812,10 +781,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -826,14 +795,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="19.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="3" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="39.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="32.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="3" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="3" width="19.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="3" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="39.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="32.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="3" width="9"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,27 +825,30 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -894,11 +866,11 @@
       <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="N2" s="0"/>
-      <c r="P2" s="0"/>
+      <c r="M2" s="7"/>
+      <c r="O2" s="0"/>
       <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
     </row>
     <row r="3" s="10" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
@@ -910,11 +882,11 @@
         <v>19</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="N3" s="0"/>
-      <c r="P3" s="0"/>
+      <c r="M3" s="7"/>
+      <c r="O3" s="0"/>
       <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
     </row>
     <row r="4" s="10" customFormat="true" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
@@ -923,13 +895,13 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="N4" s="0"/>
-      <c r="P4" s="0"/>
+      <c r="M4" s="7"/>
+      <c r="O4" s="0"/>
       <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
     </row>
     <row r="5" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -938,26 +910,26 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
-      <c r="K5" s="12" t="s">
+      <c r="L5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="N5" s="0"/>
-      <c r="P5" s="0"/>
+      <c r="M5" s="7"/>
+      <c r="O5" s="0"/>
       <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
     </row>
     <row r="6" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="N6" s="0"/>
-      <c r="P6" s="0"/>
+      <c r="M6" s="7"/>
+      <c r="O6" s="0"/>
       <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
     </row>
     <row r="7" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
@@ -966,13 +938,13 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="N7" s="0"/>
-      <c r="P7" s="0"/>
+      <c r="M7" s="7"/>
+      <c r="O7" s="0"/>
       <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
     </row>
     <row r="8" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -983,11 +955,11 @@
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="N8" s="0"/>
-      <c r="P8" s="0"/>
+      <c r="M8" s="7"/>
+      <c r="O8" s="0"/>
       <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
     </row>
     <row r="9" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
@@ -998,11 +970,11 @@
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="N9" s="0"/>
-      <c r="P9" s="0"/>
+      <c r="M9" s="7"/>
+      <c r="O9" s="0"/>
       <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
     </row>
     <row r="10" s="10" customFormat="true" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
@@ -1013,13 +985,14 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
-      <c r="K10" s="13" t="s">
+      <c r="F10" s="0"/>
+      <c r="L10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="N10" s="0"/>
-      <c r="P10" s="0"/>
+      <c r="M10" s="14"/>
+      <c r="O10" s="0"/>
       <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
     </row>
     <row r="11" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
@@ -1028,214 +1001,217 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="N11" s="0"/>
-      <c r="P11" s="0"/>
+      <c r="F11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="O11" s="0"/>
       <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="M24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="M26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="M27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="0"/>
-      <c r="L28" s="13" t="s">
-        <v>55</v>
+      <c r="M28" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L29" s="13" t="s">
-        <v>56</v>
+      <c r="M29" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L30" s="13" t="s">
-        <v>57</v>
+      <c r="M30" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L31" s="16" t="s">
-        <v>58</v>
+      <c r="M31" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L32" s="13" t="s">
-        <v>59</v>
+      <c r="M32" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L33" s="13" t="s">
-        <v>60</v>
+      <c r="M33" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L34" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="M34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L36" s="13" t="s">
-        <v>62</v>
+      <c r="M36" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L37" s="2" t="s">
-        <v>63</v>
+      <c r="M37" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,11 +1219,11 @@
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
-      <c r="K43" s="20"/>
       <c r="L43" s="20"/>
-      <c r="N43" s="21"/>
-      <c r="P43" s="21"/>
+      <c r="M43" s="20"/>
+      <c r="O43" s="21"/>
       <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1271,7 +1247,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F11 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1294,7 +1270,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F11 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
